--- a/data_year/zb/住宿和餐饮业/连锁餐饮企业/按登记注册类型和行业分连锁餐饮企业营业额.xlsx
+++ b/data_year/zb/住宿和餐饮业/连锁餐饮企业/按登记注册类型和行业分连锁餐饮企业营业额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,1475 +593,1121 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.0148</v>
+      </c>
+      <c r="C2" t="n">
+        <v>104.9494</v>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>76.9639</v>
+      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>6.8093</v>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>346.6836</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.2679</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.4677</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.0785</v>
+      </c>
+      <c r="M2" t="n">
+        <v>486.7</v>
+      </c>
+      <c r="N2" t="n">
+        <v>369.6572</v>
+      </c>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>80.23180000000001</v>
+      </c>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>5.154</v>
+      </c>
+      <c r="S2" t="n">
+        <v>40.8239</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7.1207</v>
+      </c>
+      <c r="U2" t="n">
+        <v>122.0349</v>
+      </c>
+      <c r="V2" t="n">
+        <v>68.9363</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6402</v>
+      </c>
+      <c r="X2" t="n">
+        <v>119.3247</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.042</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>20.5225</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>144.5294</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.7307</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>109.0841</v>
+      </c>
       <c r="AD2" t="n">
-        <v>348.23</v>
-      </c>
-      <c r="AE2" t="inlineStr"/>
+        <v>955.4184</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2.8306</v>
+      </c>
       <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.12398</v>
+      </c>
+      <c r="C3" t="n">
+        <v>151.5686</v>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>94.69971</v>
+      </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>2.58031</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13.86547</v>
+      </c>
+      <c r="I3" t="n">
+        <v>351.52756</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.45713</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.19905</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.1211</v>
+      </c>
+      <c r="M3" t="n">
+        <v>621.03577</v>
+      </c>
+      <c r="N3" t="n">
+        <v>458.22209</v>
+      </c>
+      <c r="O3" t="n">
+        <v>671.6246</v>
+      </c>
+      <c r="P3" t="n">
+        <v>98.15684</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>408.6156</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>48.39126</v>
+      </c>
+      <c r="T3" t="n">
+        <v>11.06915</v>
+      </c>
+      <c r="U3" t="n">
+        <v>147.8277</v>
+      </c>
+      <c r="V3" t="n">
+        <v>86.06729</v>
+      </c>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>132.0926</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5.52381</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>22.86879</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>160.4852</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2.3811</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>83.76537</v>
+      </c>
       <c r="AD3" t="n">
-        <v>454.36</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+        <v>1120.39103</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.95969</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>26.28536</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.8543</v>
+        <v>4.28205</v>
       </c>
       <c r="C4" t="n">
-        <v>79.9251</v>
+        <v>168.47847</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>52.7425</v>
+        <v>126.78666</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.434</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>0.15502</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13.68009</v>
+      </c>
       <c r="I4" t="n">
-        <v>235.1078</v>
+        <v>408.32124</v>
       </c>
       <c r="J4" t="n">
-        <v>3.258</v>
+        <v>3.61789</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6185</v>
-      </c>
-      <c r="L4" t="n">
-        <v>57.5</v>
-      </c>
+        <v>4.39925</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>278.9153</v>
+        <v>721.31699</v>
       </c>
       <c r="N4" t="n">
-        <v>103.6359</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>548.55647</v>
+      </c>
+      <c r="O4" t="n">
+        <v>778.9580999999999</v>
+      </c>
       <c r="P4" t="n">
-        <v>56.0005</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+        <v>130.40455</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>452.09089</v>
+      </c>
       <c r="R4" t="n">
-        <v>2.1776</v>
+        <v>2.93844</v>
       </c>
       <c r="S4" t="n">
-        <v>21.3322</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
+        <v>47.44786</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.45103</v>
+      </c>
       <c r="U4" t="n">
-        <v>37.912</v>
+        <v>153.62642</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4023</v>
+        <v>102.78909</v>
       </c>
       <c r="W4" t="n">
-        <v>2.3757</v>
+        <v>0.05206</v>
       </c>
       <c r="X4" t="n">
-        <v>136.3257</v>
+        <v>146.71898</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.604</v>
+        <v>8.476749999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.1491</v>
+        <v>19.61597</v>
       </c>
       <c r="AA4" t="n">
-        <v>157.4546</v>
+        <v>174.86376</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.4511</v>
+        <v>0.56075</v>
       </c>
       <c r="AC4" t="n">
-        <v>15.7827</v>
+        <v>95.95949</v>
       </c>
       <c r="AD4" t="n">
-        <v>563.75</v>
+        <v>1283.26465</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3665</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
+        <v>1.97842</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>38.53557</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.3087</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>87.93899999999999</v>
+        <v>161.2643</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>52.1031</v>
+        <v>141.3761</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.6247</v>
+        <v>0.4312</v>
       </c>
       <c r="H5" t="n">
-        <v>12.7966</v>
+        <v>14.2667</v>
       </c>
       <c r="I5" t="n">
-        <v>259.5908</v>
+        <v>405.1218</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4786</v>
+        <v>4.2715</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9763</v>
+        <v>5.8836</v>
       </c>
       <c r="L5" t="n">
-        <v>30.3122</v>
+        <v>0.8114</v>
       </c>
       <c r="M5" t="n">
-        <v>331.7863</v>
+        <v>747.9808</v>
       </c>
       <c r="N5" t="n">
-        <v>166.2263</v>
+        <v>582.9050999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>314.72267</v>
+        <v>801.5066</v>
       </c>
       <c r="P5" t="n">
-        <v>55.5817</v>
+        <v>145.6476</v>
       </c>
       <c r="Q5" t="n">
-        <v>313.01667</v>
+        <v>446.4873</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2995</v>
+        <v>2.6798</v>
       </c>
       <c r="S5" t="n">
-        <v>27.4571</v>
+        <v>39.8113</v>
       </c>
       <c r="T5" t="n">
-        <v>18.20375</v>
+        <v>0.3473</v>
       </c>
       <c r="U5" t="n">
-        <v>48.6258</v>
+        <v>166.5184</v>
       </c>
       <c r="V5" t="n">
-        <v>20.8693</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.8854</v>
-      </c>
+        <v>123.6801</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>140.6087</v>
+        <v>151.0406</v>
       </c>
       <c r="Y5" t="n">
-        <v>30.5287</v>
+        <v>12.501</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.8201</v>
+        <v>14.2474</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.8429</v>
+        <v>177.789</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.5756</v>
+        <v>0.4628</v>
       </c>
       <c r="AC5" t="n">
-        <v>17.9622</v>
+        <v>73.5954</v>
       </c>
       <c r="AD5" t="n">
-        <v>640</v>
+        <v>1319.621</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.0275</v>
+        <v>1.3122</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.19466</v>
+        <v>57.3606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.33752</v>
+        <v>3.1876</v>
       </c>
       <c r="C6" t="n">
-        <v>87.12434</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>169.1761</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.6354</v>
+      </c>
       <c r="E6" t="n">
-        <v>71.98757000000001</v>
+        <v>151.2796</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>1.43136</v>
+        <v>0.3249</v>
       </c>
       <c r="H6" t="n">
-        <v>18.71429</v>
+        <v>19.1372</v>
       </c>
       <c r="I6" t="n">
-        <v>293.96474</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>407.3385</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.8282</v>
+      </c>
       <c r="K6" t="n">
-        <v>1.35919</v>
+        <v>6.1902</v>
       </c>
       <c r="L6" t="n">
-        <v>64.69750000000001</v>
+        <v>0.5117</v>
       </c>
       <c r="M6" t="n">
-        <v>436.10883</v>
+        <v>769.3478</v>
       </c>
       <c r="N6" t="n">
-        <v>272.94947</v>
+        <v>583.8371</v>
       </c>
       <c r="O6" t="n">
-        <v>391.47676</v>
+        <v>833.3317</v>
       </c>
       <c r="P6" t="n">
-        <v>71.98757000000001</v>
+        <v>153.1078</v>
       </c>
       <c r="Q6" t="n">
-        <v>390.55392</v>
+        <v>460.001</v>
       </c>
       <c r="R6" t="n">
-        <v>3.3629</v>
+        <v>1.795</v>
       </c>
       <c r="S6" t="n">
-        <v>10.891</v>
+        <v>43.5547</v>
       </c>
       <c r="T6" t="n">
-        <v>21.32691</v>
+        <v>0.3445</v>
       </c>
       <c r="U6" t="n">
-        <v>76.83216</v>
+        <v>214.3343</v>
       </c>
       <c r="V6" t="n">
-        <v>41.25135</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.01277</v>
-      </c>
+        <v>168.64</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>114.71603</v>
+        <v>145.9121</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.07821</v>
+        <v>12.9324</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.29882</v>
+        <v>11.2341</v>
       </c>
       <c r="AA6" t="n">
-        <v>136.10583</v>
+        <v>170.0786</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.7886</v>
+        <v>0.3994</v>
       </c>
       <c r="AC6" t="n">
-        <v>80.24446</v>
+        <v>76.08369999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>806.9057299999999</v>
+        <v>1391.0206</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.04773</v>
+        <v>1.154</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.16076</v>
+        <v>78.5508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.2619</v>
+        <v>3.5099</v>
       </c>
       <c r="C7" t="n">
-        <v>93.63</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>173.722</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.5698</v>
+      </c>
       <c r="E7" t="n">
-        <v>86.8643</v>
+        <v>191.0826</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>1.0416</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>0.3432</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17.8926</v>
+      </c>
       <c r="I7" t="n">
-        <v>316.6776</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>517.4459000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.4348</v>
+      </c>
       <c r="K7" t="n">
-        <v>1.7451</v>
+        <v>6.4138</v>
       </c>
       <c r="L7" t="n">
-        <v>68.76600000000001</v>
+        <v>0.2018</v>
       </c>
       <c r="M7" t="n">
-        <v>465.2117</v>
+        <v>775.4482</v>
       </c>
       <c r="N7" t="n">
-        <v>288.5538</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
+        <v>581.4448</v>
+      </c>
+      <c r="O7" t="n">
+        <v>883.7237</v>
+      </c>
       <c r="P7" t="n">
-        <v>86.8643</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+        <v>194.5174</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>518.4972</v>
+      </c>
       <c r="R7" t="n">
-        <v>4.9565</v>
+        <v>1.9985</v>
       </c>
       <c r="S7" t="n">
-        <v>14.1886</v>
+        <v>43.4878</v>
       </c>
       <c r="T7" t="n">
-        <v>21.3579</v>
+        <v>0.2159</v>
       </c>
       <c r="U7" t="n">
-        <v>97.43000000000001</v>
+        <v>233.7185</v>
       </c>
       <c r="V7" t="n">
-        <v>56.927</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.2379</v>
-      </c>
+        <v>188.0163</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>105.6244</v>
+        <v>143.3761</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.8547</v>
+        <v>6.7835</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.5648</v>
+        <v>8.6355</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.2817</v>
+        <v>158.7951</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.6524</v>
+        <v>0.3632</v>
       </c>
       <c r="AC7" t="n">
-        <v>93.42789999999999</v>
+        <v>156.0361</v>
       </c>
       <c r="AD7" t="n">
-        <v>879.3193</v>
+        <v>1526.6126</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.6646</v>
-      </c>
-      <c r="AF7" t="inlineStr"/>
+        <v>0.9772</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>106.499</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.0148</v>
+        <v>3.5099</v>
       </c>
       <c r="C8" t="n">
-        <v>104.9494</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>157.2197</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19.8556</v>
+      </c>
       <c r="E8" t="n">
-        <v>76.9639</v>
+        <v>193.0983</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>6.8093</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>0.3237</v>
+      </c>
+      <c r="H8" t="n">
+        <v>22.9187</v>
+      </c>
       <c r="I8" t="n">
-        <v>346.6836</v>
+        <v>547.6944999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2679</v>
+        <v>2.2439</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4677</v>
+        <v>7.9939</v>
       </c>
       <c r="L8" t="n">
-        <v>7.0785</v>
+        <v>0.0023</v>
       </c>
       <c r="M8" t="n">
-        <v>486.7</v>
+        <v>786.8663</v>
       </c>
       <c r="N8" t="n">
-        <v>369.6572</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
+        <v>606.2788</v>
+      </c>
+      <c r="O8" t="n">
+        <v>928.6617</v>
+      </c>
       <c r="P8" t="n">
-        <v>80.23180000000001</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+        <v>195.3422</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>545.4877</v>
+      </c>
       <c r="R8" t="n">
-        <v>5.154</v>
+        <v>2.2214</v>
       </c>
       <c r="S8" t="n">
-        <v>40.8239</v>
+        <v>77.22029999999999</v>
       </c>
       <c r="T8" t="n">
-        <v>7.1207</v>
+        <v>1.2396</v>
       </c>
       <c r="U8" t="n">
-        <v>122.0349</v>
+        <v>300.5861</v>
       </c>
       <c r="V8" t="n">
-        <v>68.9363</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.6402</v>
-      </c>
+        <v>219.9048</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>119.3247</v>
+        <v>163.8036</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.042</v>
+        <v>7.973</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.5225</v>
+        <v>1.1089</v>
       </c>
       <c r="AA8" t="n">
-        <v>144.5294</v>
+        <v>172.8855</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.7307</v>
+        <v>0.365</v>
       </c>
       <c r="AC8" t="n">
-        <v>109.0841</v>
+        <v>169.6291</v>
       </c>
       <c r="AD8" t="n">
-        <v>955.4184</v>
+        <v>1635.15</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.8306</v>
-      </c>
-      <c r="AF8" t="inlineStr"/>
+        <v>1.1551</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>138.0789</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4.12398</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>151.5686</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>172.8836</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.4157</v>
+      </c>
       <c r="E9" t="n">
-        <v>94.69971</v>
+        <v>167.5222</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>2.58031</v>
+        <v>0.0444</v>
       </c>
       <c r="H9" t="n">
-        <v>13.86547</v>
+        <v>19.8982</v>
       </c>
       <c r="I9" t="n">
-        <v>351.52756</v>
+        <v>502.0503</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45713</v>
+        <v>1.8665</v>
       </c>
       <c r="K9" t="n">
-        <v>2.19905</v>
+        <v>7.16</v>
       </c>
       <c r="L9" t="n">
-        <v>7.1211</v>
+        <v>24.2929</v>
       </c>
       <c r="M9" t="n">
-        <v>621.03577</v>
+        <v>810.9086</v>
       </c>
       <c r="N9" t="n">
-        <v>458.22209</v>
+        <v>593.3163</v>
       </c>
       <c r="O9" t="n">
-        <v>671.6246</v>
+        <v>1008.6883</v>
       </c>
       <c r="P9" t="n">
-        <v>98.15684</v>
+        <v>169.3887</v>
       </c>
       <c r="Q9" t="n">
-        <v>408.6156</v>
+        <v>540.2265</v>
       </c>
       <c r="R9" t="n">
-        <v>2.3</v>
+        <v>2.516</v>
       </c>
       <c r="S9" t="n">
-        <v>48.39126</v>
+        <v>89.4675</v>
       </c>
       <c r="T9" t="n">
-        <v>11.06915</v>
+        <v>1.1145</v>
       </c>
       <c r="U9" t="n">
-        <v>147.8277</v>
+        <v>422.5222</v>
       </c>
       <c r="V9" t="n">
-        <v>86.06729</v>
+        <v>329.4242</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>132.0926</v>
+        <v>180.3686</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.52381</v>
+        <v>8.860799999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.86879</v>
+        <v>0.993</v>
       </c>
       <c r="AA9" t="n">
-        <v>160.4852</v>
+        <v>190.2224</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.3811</v>
+        <v>0.7551</v>
       </c>
       <c r="AC9" t="n">
-        <v>83.76537</v>
+        <v>133.3162</v>
       </c>
       <c r="AD9" t="n">
-        <v>1120.39103</v>
+        <v>1735.4811</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.95969</v>
+        <v>1.1635</v>
       </c>
       <c r="AF9" t="n">
-        <v>26.28536</v>
+        <v>166.6681</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4.28205</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>168.47847</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>177.2698</v>
+      </c>
+      <c r="D10" t="n">
+        <v>36.8806</v>
+      </c>
       <c r="E10" t="n">
-        <v>126.78666</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>169.8408</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1558</v>
+      </c>
       <c r="G10" t="n">
-        <v>0.15502</v>
+        <v>0.0246</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68009</v>
+        <v>17.0427</v>
       </c>
       <c r="I10" t="n">
-        <v>408.32124</v>
+        <v>569.2523</v>
       </c>
       <c r="J10" t="n">
-        <v>3.61789</v>
+        <v>0.2819</v>
       </c>
       <c r="K10" t="n">
-        <v>4.39925</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>8.144299999999999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>30.4724</v>
+      </c>
       <c r="M10" t="n">
-        <v>721.31699</v>
+        <v>860.9983</v>
       </c>
       <c r="N10" t="n">
-        <v>548.55647</v>
+        <v>616.3756</v>
       </c>
       <c r="O10" t="n">
-        <v>778.9580999999999</v>
+        <v>1065.0675</v>
       </c>
       <c r="P10" t="n">
-        <v>130.40455</v>
+        <v>170.1227</v>
       </c>
       <c r="Q10" t="n">
-        <v>452.09089</v>
+        <v>655.9992</v>
       </c>
       <c r="R10" t="n">
-        <v>2.93844</v>
+        <v>2.2508</v>
       </c>
       <c r="S10" t="n">
-        <v>47.44786</v>
+        <v>97.48399999999999</v>
       </c>
       <c r="T10" t="n">
-        <v>0.45103</v>
+        <v>3.2661</v>
       </c>
       <c r="U10" t="n">
-        <v>153.62642</v>
+        <v>519.7558</v>
       </c>
       <c r="V10" t="n">
-        <v>102.78909</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.05206</v>
-      </c>
+        <v>416.5991</v>
+      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>146.71898</v>
+        <v>240.8887</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.476749999999999</v>
+        <v>5.7213</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.61597</v>
+        <v>0.7147</v>
       </c>
       <c r="AA10" t="n">
-        <v>174.86376</v>
+        <v>247.3247</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.56075</v>
+        <v>0.7072000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>95.95949</v>
+        <v>141.895</v>
       </c>
       <c r="AD10" t="n">
-        <v>1283.26465</v>
+        <v>1950.01</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.97842</v>
+        <v>1.0338</v>
       </c>
       <c r="AF10" t="n">
-        <v>38.53557</v>
+        <v>211.8972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>161.2643</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>191.7902</v>
+      </c>
+      <c r="D11" t="n">
+        <v>35.0493</v>
+      </c>
       <c r="E11" t="n">
-        <v>141.3761</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>261.2712</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1757</v>
+      </c>
       <c r="G11" t="n">
-        <v>0.4312</v>
+        <v>0.6096</v>
       </c>
       <c r="H11" t="n">
-        <v>14.2667</v>
+        <v>11.6556</v>
       </c>
       <c r="I11" t="n">
-        <v>405.1218</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.2715</v>
-      </c>
+        <v>681.4919</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>5.8836</v>
+        <v>8.664899999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8114</v>
+        <v>37.3235</v>
       </c>
       <c r="M11" t="n">
-        <v>747.9808</v>
+        <v>954.9974</v>
       </c>
       <c r="N11" t="n">
-        <v>582.9050999999999</v>
+        <v>690.8344</v>
       </c>
       <c r="O11" t="n">
-        <v>801.5066</v>
+        <v>1198.869</v>
       </c>
       <c r="P11" t="n">
-        <v>145.6476</v>
+        <v>261.2712</v>
       </c>
       <c r="Q11" t="n">
-        <v>446.4873</v>
+        <v>738.4494999999999</v>
       </c>
       <c r="R11" t="n">
-        <v>2.6798</v>
+        <v>2.4237</v>
       </c>
       <c r="S11" t="n">
-        <v>39.8113</v>
+        <v>107.777</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3473</v>
+        <v>3.2294</v>
       </c>
       <c r="U11" t="n">
-        <v>166.5184</v>
+        <v>598.0064</v>
       </c>
       <c r="V11" t="n">
-        <v>123.6801</v>
-      </c>
-      <c r="W11" t="inlineStr"/>
+        <v>484.4007</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.9213</v>
+      </c>
       <c r="X11" t="n">
-        <v>151.0406</v>
+        <v>268.7211</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.501</v>
+        <v>5.4986</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.2474</v>
+        <v>0.5288</v>
       </c>
       <c r="AA11" t="n">
-        <v>177.789</v>
+        <v>275.6699</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.4628</v>
+        <v>0.7459</v>
       </c>
       <c r="AC11" t="n">
-        <v>73.5954</v>
+        <v>133.5673</v>
       </c>
       <c r="AD11" t="n">
-        <v>1319.621</v>
+        <v>2234.4957</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.3122</v>
+        <v>0.9631</v>
       </c>
       <c r="AF11" t="n">
-        <v>57.3606</v>
+        <v>285.5217</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.1876</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>169.1761</v>
+        <v>182.7044</v>
       </c>
       <c r="D12" t="n">
-        <v>12.6354</v>
+        <v>31.6471</v>
       </c>
       <c r="E12" t="n">
-        <v>151.2796</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>274.9875</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1317</v>
+      </c>
       <c r="G12" t="n">
-        <v>0.3249</v>
+        <v>0.3618</v>
       </c>
       <c r="H12" t="n">
-        <v>19.1372</v>
+        <v>91.1863</v>
       </c>
       <c r="I12" t="n">
-        <v>407.3385</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.8282</v>
-      </c>
+        <v>622.1257000000001</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>6.1902</v>
+        <v>7.4657</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5117</v>
+        <v>27.3186</v>
       </c>
       <c r="M12" t="n">
-        <v>769.3478</v>
+        <v>871.3249</v>
       </c>
       <c r="N12" t="n">
-        <v>583.8371</v>
+        <v>629.6549</v>
       </c>
       <c r="O12" t="n">
-        <v>833.3317</v>
+        <v>1102.2863</v>
       </c>
       <c r="P12" t="n">
-        <v>153.1078</v>
+        <v>274.9875</v>
       </c>
       <c r="Q12" t="n">
-        <v>460.001</v>
+        <v>560.5651</v>
       </c>
       <c r="R12" t="n">
-        <v>1.795</v>
+        <v>4.524</v>
       </c>
       <c r="S12" t="n">
-        <v>43.5547</v>
+        <v>95.8518</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3445</v>
+        <v>2.2973</v>
       </c>
       <c r="U12" t="n">
-        <v>214.3343</v>
+        <v>525.8391</v>
       </c>
       <c r="V12" t="n">
-        <v>168.64</v>
+        <v>423.0342</v>
       </c>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="n">
-        <v>145.9121</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>12.9324</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>11.2341</v>
-      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>170.0786</v>
+        <v>251.5081</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.3994</v>
+        <v>0.5906</v>
       </c>
       <c r="AC12" t="n">
-        <v>76.08369999999999</v>
+        <v>86.01220000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>1391.0206</v>
+        <v>2019.2898</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.154</v>
+        <v>0.8089</v>
       </c>
       <c r="AF12" t="n">
-        <v>78.5508</v>
+        <v>264.8611</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.5099</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>173.722</v>
+        <v>196.9303</v>
       </c>
       <c r="D13" t="n">
-        <v>16.5698</v>
+        <v>32.9178</v>
       </c>
       <c r="E13" t="n">
-        <v>191.0826</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>235.952</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3228</v>
+      </c>
       <c r="G13" t="n">
-        <v>0.3432</v>
+        <v>0.4192</v>
       </c>
       <c r="H13" t="n">
-        <v>17.8926</v>
+        <v>161.9573</v>
       </c>
       <c r="I13" t="n">
-        <v>517.4459000000001</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.4348</v>
-      </c>
+        <v>891.8224</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>6.4138</v>
+        <v>8.6692</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2018</v>
+        <v>35.8874</v>
       </c>
       <c r="M13" t="n">
-        <v>775.4482</v>
+        <v>982.5014</v>
       </c>
       <c r="N13" t="n">
-        <v>581.4448</v>
+        <v>716.7659</v>
       </c>
       <c r="O13" t="n">
-        <v>883.7237</v>
+        <v>1270.5124</v>
       </c>
       <c r="P13" t="n">
-        <v>194.5174</v>
+        <v>235.952</v>
       </c>
       <c r="Q13" t="n">
-        <v>518.4972</v>
+        <v>727.6268</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9985</v>
+        <v>5.3068</v>
       </c>
       <c r="S13" t="n">
-        <v>43.4878</v>
+        <v>110.4266</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2159</v>
+        <v>3.2637</v>
       </c>
       <c r="U13" t="n">
-        <v>233.7185</v>
+        <v>650.8591</v>
       </c>
       <c r="V13" t="n">
-        <v>188.0163</v>
+        <v>531.5393</v>
       </c>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="n">
-        <v>143.3761</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>6.7835</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>8.6355</v>
-      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>158.7951</v>
+        <v>540.4465</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.3632</v>
+        <v>0.7187</v>
       </c>
       <c r="AC13" t="n">
-        <v>156.0361</v>
+        <v>104.1086</v>
       </c>
       <c r="AD13" t="n">
-        <v>1526.6126</v>
+        <v>2525.1829</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.9772</v>
+        <v>0.8981</v>
       </c>
       <c r="AF13" t="n">
-        <v>106.499</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3.5099</v>
-      </c>
-      <c r="C14" t="n">
-        <v>157.2197</v>
-      </c>
-      <c r="D14" t="n">
-        <v>19.8556</v>
-      </c>
-      <c r="E14" t="n">
-        <v>193.0983</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>0.3237</v>
-      </c>
-      <c r="H14" t="n">
-        <v>22.9187</v>
-      </c>
-      <c r="I14" t="n">
-        <v>547.6944999999999</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.2439</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7.9939</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="M14" t="n">
-        <v>786.8663</v>
-      </c>
-      <c r="N14" t="n">
-        <v>606.2788</v>
-      </c>
-      <c r="O14" t="n">
-        <v>928.6617</v>
-      </c>
-      <c r="P14" t="n">
-        <v>195.3422</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>545.4877</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.2214</v>
-      </c>
-      <c r="S14" t="n">
-        <v>77.22029999999999</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.2396</v>
-      </c>
-      <c r="U14" t="n">
-        <v>300.5861</v>
-      </c>
-      <c r="V14" t="n">
-        <v>219.9048</v>
-      </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="n">
-        <v>163.8036</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>7.973</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.1089</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>172.8855</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>169.6291</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1635.15</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1.1551</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>138.0789</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>172.8836</v>
-      </c>
-      <c r="D15" t="n">
-        <v>20.4157</v>
-      </c>
-      <c r="E15" t="n">
-        <v>167.5222</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>0.0444</v>
-      </c>
-      <c r="H15" t="n">
-        <v>19.8982</v>
-      </c>
-      <c r="I15" t="n">
-        <v>502.0503</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.8665</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="L15" t="n">
-        <v>24.2929</v>
-      </c>
-      <c r="M15" t="n">
-        <v>810.9086</v>
-      </c>
-      <c r="N15" t="n">
-        <v>593.3163</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1008.6883</v>
-      </c>
-      <c r="P15" t="n">
-        <v>169.3887</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>540.2265</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.516</v>
-      </c>
-      <c r="S15" t="n">
-        <v>89.4675</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.1145</v>
-      </c>
-      <c r="U15" t="n">
-        <v>422.5222</v>
-      </c>
-      <c r="V15" t="n">
-        <v>329.4242</v>
-      </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
-        <v>180.3686</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8.860799999999999</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>190.2224</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.7551</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>133.3162</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1735.4811</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1.1635</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>166.6681</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>177.2698</v>
-      </c>
-      <c r="D16" t="n">
-        <v>36.8806</v>
-      </c>
-      <c r="E16" t="n">
-        <v>169.8408</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.1558</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.0246</v>
-      </c>
-      <c r="H16" t="n">
-        <v>17.0427</v>
-      </c>
-      <c r="I16" t="n">
-        <v>569.2523</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.2819</v>
-      </c>
-      <c r="K16" t="n">
-        <v>8.144299999999999</v>
-      </c>
-      <c r="L16" t="n">
-        <v>30.4724</v>
-      </c>
-      <c r="M16" t="n">
-        <v>860.9983</v>
-      </c>
-      <c r="N16" t="n">
-        <v>616.3756</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1065.0675</v>
-      </c>
-      <c r="P16" t="n">
-        <v>170.1227</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>655.9992</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.2508</v>
-      </c>
-      <c r="S16" t="n">
-        <v>97.48399999999999</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.2661</v>
-      </c>
-      <c r="U16" t="n">
-        <v>519.7558</v>
-      </c>
-      <c r="V16" t="n">
-        <v>416.5991</v>
-      </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="n">
-        <v>240.8887</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>5.7213</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.7147</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>247.3247</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.7072000000000001</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>141.895</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1950.01</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1.0338</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>211.8972</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>191.7902</v>
-      </c>
-      <c r="D17" t="n">
-        <v>35.0493</v>
-      </c>
-      <c r="E17" t="n">
-        <v>261.2712</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1757</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.6096</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11.6556</v>
-      </c>
-      <c r="I17" t="n">
-        <v>681.4919</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>8.664899999999999</v>
-      </c>
-      <c r="L17" t="n">
-        <v>37.3235</v>
-      </c>
-      <c r="M17" t="n">
-        <v>954.9974</v>
-      </c>
-      <c r="N17" t="n">
-        <v>690.8344</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1198.869</v>
-      </c>
-      <c r="P17" t="n">
-        <v>261.2712</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>738.4494999999999</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.4237</v>
-      </c>
-      <c r="S17" t="n">
-        <v>107.777</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.2294</v>
-      </c>
-      <c r="U17" t="n">
-        <v>598.0064</v>
-      </c>
-      <c r="V17" t="n">
-        <v>484.4007</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.9213</v>
-      </c>
-      <c r="X17" t="n">
-        <v>268.7211</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>5.4986</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.5288</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>275.6699</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.7459</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>133.5673</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>2234.4957</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.9631</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>285.5217</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>182.7044</v>
-      </c>
-      <c r="D18" t="n">
-        <v>31.6471</v>
-      </c>
-      <c r="E18" t="n">
-        <v>274.9875</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.1317</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.3618</v>
-      </c>
-      <c r="H18" t="n">
-        <v>91.1863</v>
-      </c>
-      <c r="I18" t="n">
-        <v>622.1257000000001</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>7.4657</v>
-      </c>
-      <c r="L18" t="n">
-        <v>27.3186</v>
-      </c>
-      <c r="M18" t="n">
-        <v>871.3249</v>
-      </c>
-      <c r="N18" t="n">
-        <v>629.6549</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1102.2863</v>
-      </c>
-      <c r="P18" t="n">
-        <v>274.9875</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>560.5651</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4.524</v>
-      </c>
-      <c r="S18" t="n">
-        <v>95.8518</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.2973</v>
-      </c>
-      <c r="U18" t="n">
-        <v>525.8391</v>
-      </c>
-      <c r="V18" t="n">
-        <v>423.0342</v>
-      </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>251.5081</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0.5906</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>86.01220000000001</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2019.2898</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.8089</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>264.8611</v>
+        <v>364.4765</v>
       </c>
     </row>
   </sheetData>
